--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2254321.159347427</v>
+        <v>2251776.566653143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500258.155388659</v>
+        <v>9500258.155388657</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>96.86671316392837</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>130.1712092340067</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>186.1649406925472</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159782</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.0040272933122</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>173.4479249732705</v>
+        <v>116.9387179902927</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>23.94240680425918</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.330606300748</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>196.350676511501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>3.481777442250939</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67.5325938015156</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469012</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.1343821439996</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>4.023709124816655</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470579</v>
+        <v>55.31717029710337</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.75612696673518</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>250.7831302631799</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754706</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>225.6414338000054</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>251.0567320179899</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183032</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764008</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764008</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>315.4971313776556</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>302.2669968018394</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>112.8472117853545</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>511.8624171433439</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262257</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262257</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262257</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="W2" t="n">
-        <v>540.7559564928856</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764008</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764008</v>
+        <v>322.4426321268591</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4428,25 +4428,25 @@
         <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>409.3994882033917</v>
       </c>
       <c r="U3" t="n">
-        <v>562.0569540263434</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>372.6371690098585</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>372.6371690098585</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
         <v>183.2173839933736</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.24882464404146</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>587.3448210336408</v>
+        <v>841.6085069816163</v>
       </c>
       <c r="C5" t="n">
-        <v>587.3448210336408</v>
+        <v>841.6085069816163</v>
       </c>
       <c r="D5" t="n">
-        <v>229.0791224268903</v>
+        <v>483.3428083748658</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146546</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226199</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675756</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746969</v>
+        <v>277.9807166746976</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030749</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709156</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332753</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540646</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540646</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540646</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540646</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540646</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.949911270532</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="X5" t="n">
-        <v>977.4841530094525</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="Y5" t="n">
-        <v>587.3448210336408</v>
+        <v>841.6085069816163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787496</v>
+        <v>61.66788464787523</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189964</v>
+        <v>399.8722171189976</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223481</v>
+        <v>668.6238185223497</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352453</v>
+        <v>958.8971200352476</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228318</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906545</v>
+        <v>1258.309378699368</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906545</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906545</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906545</v>
+        <v>827.6166521873802</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>573.3792954591786</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>365.5277952536458</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="C7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="D7" t="n">
-        <v>102.7727975304097</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574653</v>
+        <v>64.24066662574681</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347961</v>
+        <v>206.9680378347969</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195352</v>
+        <v>287.8841338195363</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934699</v>
+        <v>342.3101561934713</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858</v>
       </c>
       <c r="R7" t="n">
-        <v>252.8894369427454</v>
+        <v>369.8190495858</v>
       </c>
       <c r="S7" t="n">
-        <v>252.8894369427454</v>
+        <v>369.8190495858</v>
       </c>
       <c r="T7" t="n">
-        <v>252.8894369427454</v>
+        <v>145.4773021217084</v>
       </c>
       <c r="U7" t="n">
-        <v>252.8894369427454</v>
+        <v>145.4773021217084</v>
       </c>
       <c r="V7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="W7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="X7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.8894369427454</v>
+        <v>34.55805631675765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301913</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232738</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.285829056568</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.285829056568</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.285829056568</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829871</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018601</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406088</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351533</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="F9" t="n">
-        <v>63.8509944620383</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="G9" t="n">
-        <v>63.8509944620383</v>
+        <v>99.24512613112688</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333486</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101743</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>475.2207619161488</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030552</v>
+        <v>267.4604631511949</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D10" t="n">
-        <v>488.2124511146038</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E10" t="n">
-        <v>340.2993575322107</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>296.6854897332244</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>296.6854897332244</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703133</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>545.3854261579776</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>397.4723325755845</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656131</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.868421906478</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1469.183933700591</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1179.76676366363</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>951.7772127656131</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.7772127656131</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,7 +6014,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191924</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>923.067041434951</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616109</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.043492616109</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637304</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191923</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349509</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.840175011101</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7163,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745235</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538418</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>60.54304058923876</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.12774237125421</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604385</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922574</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.254850302</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253105</v>
+        <v>270592.3620253117</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231945</v>
+        <v>115410.0540231947</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.695094722106472e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881941</v>
+        <v>62913.63765881958</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197521</v>
+        <v>27875.25362197533</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.565374698265103e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888978</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687982</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936806</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683763</v>
+        <v>-311097.9403683768</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.8077271871</v>
+        <v>62148.80772718643</v>
       </c>
       <c r="D6" t="n">
         <v>240969.2014302478</v>
       </c>
       <c r="E6" t="n">
-        <v>-112642.4276375476</v>
+        <v>-112677.1655629823</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367178</v>
+        <v>488766.0420112822</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367178</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="J6" t="n">
-        <v>439735.8352081728</v>
+        <v>439701.0972827369</v>
       </c>
       <c r="K6" t="n">
-        <v>425887.1422778981</v>
+        <v>425852.4043524624</v>
       </c>
       <c r="L6" t="n">
-        <v>460925.5263147423</v>
+        <v>460890.7883893066</v>
       </c>
       <c r="M6" t="n">
-        <v>331654.3993851194</v>
+        <v>331619.6614596841</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367171</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112818</v>
       </c>
     </row>
   </sheetData>
@@ -26698,28 +26698,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.804915500200782e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>758.8996292950612</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>431.9757039594706</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821555</v>
+        <v>210.4296883821564</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426238</v>
+        <v>94.81103524262392</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931497</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.60460395604632</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988673</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>219.0697594834063</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681185</v>
       </c>
       <c r="U3" t="n">
-        <v>39.69882771754368</v>
+        <v>38.33818124377089</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593218</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.68201325828502</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625572</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>208.4824450989912</v>
+        <v>264.9916520819691</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>92.85788772760047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.32085084937517</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074813</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941857</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>202.2009183350534</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.90136884505357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304066</v>
+        <v>30.24193919304054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589176</v>
+        <v>36.9111576058916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769268</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.599459519480945</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.0485487447872</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714936</v>
+        <v>39.18364296475174</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>116.8593460514772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060648117</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.992184931500383e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.145214130423451e-11</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085671</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520267</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>481.4474502511774</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>544.3712888610694</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>514.0343715191487</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.5213077489898</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>56.20152915062483</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658083</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468664</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.3776244374451</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947719</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.579516597378878</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>96.75348224635557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>61.53307486054707</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.847259438830798</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07464586517656348</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,34 +32789,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319857</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,31 +33266,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>718.5832682008319</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,13 +33521,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>726.7533607666142</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,31 +33977,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.9900634070462</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>314.9582252644785</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>283.936160097462</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308266</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092665</v>
+        <v>27.38366498092685</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>245.7813799930007</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729186</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872787</v>
+        <v>68.38629016872815</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554461</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501444</v>
+        <v>68.57507023501469</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230838</v>
+        <v>75.59399159230867</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761528</v>
+        <v>81.73343028761556</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569163</v>
+        <v>54.97578017569188</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235199</v>
+        <v>27.78676100235222</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>587.2415561174986</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317163</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>584.6193268445958</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
